--- a/htdocs/App/Controllers/Traspasos/0273DXX.xlsx
+++ b/htdocs/App/Controllers/Traspasos/0273DXX.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>TRANSFERENCIAS COMPRAVENTAS</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>08-11-2017</t>
+    <t>02-02-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-11-08</t>
+    <t>2018-02-02</t>
   </si>
   <si>
     <t>x</t>
@@ -64,7 +64,7 @@
     <t>Compraventa:</t>
   </si>
   <si>
-    <t>Automoción Desi</t>
+    <t>Georgi Petrov Georgiev</t>
   </si>
   <si>
     <t>Telf.</t>
@@ -79,7 +79,7 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>nd</t>
+    <t>sin confirmar</t>
   </si>
   <si>
     <t>Tramitación Transferencia………………..</t>
@@ -94,10 +94,13 @@
     <t>Comprador:</t>
   </si>
   <si>
-    <t>AUTOMOCIóN DESI</t>
-  </si>
-  <si>
-    <t>No disponible</t>
+    <t>Esther Faustina Garzuzi</t>
+  </si>
+  <si>
+    <t>Correos</t>
+  </si>
+  <si>
+    <t>alessandrodassano@hotmail.com</t>
   </si>
   <si>
     <t>TOTAL PRESUPUESTO</t>
@@ -1363,7 +1366,7 @@
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="57">
-        <v>691570704</v>
+        <v>654083189</v>
       </c>
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
@@ -1584,14 +1587,20 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
-      <c r="S22" s="77"/>
+      <c r="S22" s="77" t="s">
+        <v>26</v>
+      </c>
       <c r="T22" s="77"/>
       <c r="U22" s="77"/>
       <c r="V22" s="77"/>
       <c r="W22" s="77"/>
       <c r="X22" s="36"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="14"/>
+      <c r="Y22" s="37">
+        <v>15</v>
+      </c>
+      <c r="Z22" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="AA22" s="30"/>
     </row>
     <row r="23" spans="1:43" customHeight="1" ht="15.6">
@@ -1601,7 +1610,7 @@
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="57">
-        <v>691570704</v>
+        <v>690870144</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -1663,7 +1672,7 @@
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="55"/>
@@ -1847,7 +1856,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
